--- a/2. Feladat/Functions.xlsx
+++ b/2. Feladat/Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gyorg\Desktop\szoftproj lab\projlab\2. Feladat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A0B2923-D82E-47CF-BD04-796BEED1A23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA6D745-A14F-41D0-92DE-87EA03D710DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{08655F1C-222C-4583-AB8D-86ABB9894EA1}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08655F1C-222C-4583-AB8D-86ABB9894EA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>Equipment</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>Mind a két diagrammon rajta van</t>
+  </si>
+  <si>
+    <t>GetSubstances</t>
+  </si>
+  <si>
+    <t>ApplyAgent</t>
+  </si>
+  <si>
+    <t>CollectedAllGenetics</t>
+  </si>
+  <si>
+    <t>Stop</t>
   </si>
 </sst>
 </file>
@@ -390,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -400,13 +412,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -418,27 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -756,7 +769,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +790,7 @@
     <col min="17" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.140625" style="1" bestFit="1" customWidth="1"/>
@@ -853,22 +866,22 @@
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -877,7 +890,7 @@
       <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="5" t="s">
@@ -886,22 +899,22 @@
       <c r="L2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S2" s="5" t="s">
@@ -919,44 +932,50 @@
         <v>21</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="R3" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="S3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="U3" s="6" t="s">
@@ -966,11 +985,11 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="21"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="21"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="4"/>
@@ -981,15 +1000,19 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="5" t="s">
         <v>48</v>
       </c>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="S4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="4"/>
+      <c r="T4" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="U4" s="6" t="s">
         <v>51</v>
       </c>
@@ -997,9 +1020,9 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="21"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="21"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
         <v>28</v>
@@ -1015,7 +1038,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="5" t="s">
         <v>38</v>
       </c>
       <c r="T5" s="4"/>
@@ -1026,9 +1049,9 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="21"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="21"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1051,9 +1074,9 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="21"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="21"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1076,9 +1099,9 @@
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="21"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1092,7 +1115,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="T8" s="4"/>
@@ -1101,9 +1124,9 @@
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="21"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1117,7 +1140,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="T9" s="4"/>
@@ -1126,9 +1149,9 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="21"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1151,9 +1174,9 @@
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="21"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1176,9 +1199,9 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="21"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1201,9 +1224,9 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="21"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1226,9 +1249,9 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="21"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1251,9 +1274,9 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="21"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1267,7 +1290,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="5" t="s">
         <v>49</v>
       </c>
       <c r="T15" s="4"/>
@@ -1276,9 +1299,9 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="21"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1292,16 +1315,18 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="S16" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="21"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="21"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1315,16 +1340,18 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
+      <c r="S17" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="21"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1345,9 +1372,9 @@
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="21"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1366,72 +1393,72 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A64">
